--- a/goodlist.xlsx
+++ b/goodlist.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\原敬太\Documents\python_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D737ED7-F25A-4117-A45D-4FD5372A8769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0069DFF-9EE7-4D29-8D14-5B5060D52D3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="2021-05-19" sheetId="2" r:id="rId2"/>
     <sheet name="2021-05-18" sheetId="3" r:id="rId3"/>
     <sheet name="2021-05-16" sheetId="4" r:id="rId4"/>
+    <sheet name="2021-05-15" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="30">
   <si>
     <t>タイトル</t>
   </si>
@@ -950,7 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1427,7 +1428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1512,6 +1513,99 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>